--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/line plot_상관관계/data_lineplot.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/line plot_상관관계/data_lineplot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\line plot_pH, 경도 관계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\line plot_상관관계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,848 +65,215 @@
     <t>pH</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>m-1</t>
-  </si>
-  <si>
     <t>에이워터 내추럴 알칼리수</t>
   </si>
   <si>
-    <t>m-AB</t>
-  </si>
-  <si>
-    <t>m-2</t>
-  </si>
-  <si>
     <t>37.4 미네랄 워터</t>
   </si>
   <si>
-    <t>m-AC</t>
-  </si>
-  <si>
-    <t>m-3</t>
-  </si>
-  <si>
     <t>물마루</t>
   </si>
   <si>
-    <t>m-AD</t>
-  </si>
-  <si>
-    <t>m-4</t>
-  </si>
-  <si>
     <t>춘천 옥산가</t>
   </si>
   <si>
-    <t>m-AE</t>
-  </si>
-  <si>
-    <t>m-5</t>
-  </si>
-  <si>
     <t>에이웰88알칼리수</t>
   </si>
   <si>
-    <t>m-AF</t>
-  </si>
-  <si>
-    <t>m-6</t>
-  </si>
-  <si>
     <t>리본워터</t>
   </si>
   <si>
-    <t>m-AG</t>
-  </si>
-  <si>
-    <t>m-7</t>
-  </si>
-  <si>
     <t>면역수</t>
   </si>
   <si>
-    <t>m-AH</t>
-  </si>
-  <si>
-    <t>m-8</t>
-  </si>
-  <si>
     <t>에이수</t>
   </si>
   <si>
-    <t>m-AI</t>
-  </si>
-  <si>
-    <t>m-9</t>
-  </si>
-  <si>
     <t>유니온 천년 알칼리수</t>
   </si>
   <si>
-    <t>m-AJ</t>
-  </si>
-  <si>
-    <t>m-10</t>
-  </si>
-  <si>
     <t>오투유</t>
   </si>
   <si>
-    <t>m-AK</t>
-  </si>
-  <si>
-    <t>m-11</t>
-  </si>
-  <si>
     <t>산소통통</t>
   </si>
   <si>
-    <t>m-AL</t>
-  </si>
-  <si>
-    <t>m-12</t>
-  </si>
-  <si>
     <t>용암수</t>
   </si>
   <si>
-    <t>m-AM</t>
-  </si>
-  <si>
-    <t>m-13</t>
-  </si>
-  <si>
     <t>수피아 17배 산소수</t>
   </si>
   <si>
-    <t>m-AN</t>
-  </si>
-  <si>
-    <t>m-14</t>
-  </si>
-  <si>
     <t>산소랑</t>
   </si>
   <si>
-    <t>m-AO</t>
-  </si>
-  <si>
-    <t>m-15</t>
-  </si>
-  <si>
     <t>다현수</t>
   </si>
   <si>
-    <t>m-AP</t>
-  </si>
-  <si>
-    <t>m-16</t>
-  </si>
-  <si>
     <t>이뮤니프 메가 미네랄 워터</t>
   </si>
   <si>
-    <t>m-AQ</t>
-  </si>
-  <si>
-    <t>m-17</t>
-  </si>
-  <si>
     <t>미네랄메이킹</t>
   </si>
   <si>
-    <t>m-AR</t>
-  </si>
-  <si>
-    <t>m-18</t>
-  </si>
-  <si>
     <t>당하수</t>
   </si>
   <si>
-    <t>m-AS</t>
-  </si>
-  <si>
-    <t>m-19</t>
-  </si>
-  <si>
     <t>뉴글라세</t>
   </si>
   <si>
-    <t>m-AT</t>
-  </si>
-  <si>
-    <t>m-20</t>
-  </si>
-  <si>
     <t>닥터M</t>
   </si>
   <si>
-    <t>m-AU</t>
-  </si>
-  <si>
-    <t>m-21</t>
-  </si>
-  <si>
     <t>휴웰수</t>
   </si>
   <si>
-    <t>m-AV</t>
-  </si>
-  <si>
-    <t>m-22</t>
-  </si>
-  <si>
     <t>일라이트 자연한모금</t>
   </si>
   <si>
-    <t>m-AW</t>
-  </si>
-  <si>
-    <t>m-23</t>
-  </si>
-  <si>
     <t>일라이트 pH한모금</t>
   </si>
   <si>
-    <t>m-AX</t>
-  </si>
-  <si>
-    <t>m-24</t>
-  </si>
-  <si>
     <t>미네락 300</t>
   </si>
   <si>
-    <t>m-AY</t>
-  </si>
-  <si>
-    <t>m-25</t>
-  </si>
-  <si>
     <t>미다수</t>
   </si>
   <si>
-    <t>m-AZ</t>
-  </si>
-  <si>
-    <t>m-26</t>
-  </si>
-  <si>
     <t>기정수</t>
   </si>
   <si>
-    <t>m-BC</t>
-  </si>
-  <si>
-    <t>m-27</t>
-  </si>
-  <si>
     <t>닥터코아</t>
   </si>
   <si>
-    <t>m-BD</t>
-  </si>
-  <si>
-    <t>m-28</t>
-  </si>
-  <si>
     <t>파동수</t>
   </si>
   <si>
-    <t>m-BE</t>
-  </si>
-  <si>
-    <t>m-29</t>
-  </si>
-  <si>
     <t>미네락 600</t>
   </si>
   <si>
-    <t>m-CQ</t>
-  </si>
-  <si>
-    <t>m-30</t>
-  </si>
-  <si>
     <t>리얼마미수</t>
   </si>
   <si>
-    <t>m-BG</t>
-  </si>
-  <si>
-    <t>m-31</t>
-  </si>
-  <si>
     <t>이즈미오</t>
   </si>
   <si>
-    <t>m-BH</t>
-  </si>
-  <si>
-    <t>m-32</t>
-  </si>
-  <si>
     <t>덕유산수소워터</t>
   </si>
   <si>
-    <t>m-BI</t>
-  </si>
-  <si>
-    <t>m-33</t>
-  </si>
-  <si>
     <t>퓨워터 하이드로젠 프리미엄</t>
   </si>
   <si>
-    <t>m-BJ</t>
-  </si>
-  <si>
-    <t>m-34</t>
-  </si>
-  <si>
     <t>엔케이워터(NK water)</t>
   </si>
   <si>
-    <t>m-BK</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>d-1</t>
-  </si>
-  <si>
     <t>아이시스8.0</t>
-  </si>
-  <si>
-    <t>d-CW</t>
-  </si>
-  <si>
-    <t>d-2</t>
-  </si>
-  <si>
-    <t>d-3</t>
   </si>
   <si>
     <t>아이시스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d-CY</t>
-  </si>
-  <si>
-    <t>d-4</t>
-  </si>
-  <si>
-    <t>d-5</t>
-  </si>
-  <si>
-    <t>d-6</t>
-  </si>
-  <si>
     <t>아이시스에코</t>
   </si>
   <si>
-    <t>d-DF</t>
-  </si>
-  <si>
-    <t>d-7</t>
-  </si>
-  <si>
-    <t>d-8</t>
-  </si>
-  <si>
-    <t>d-9</t>
-  </si>
-  <si>
     <t>아이시스(연천)</t>
   </si>
   <si>
-    <t>d-DI</t>
-  </si>
-  <si>
-    <t>d-10</t>
-  </si>
-  <si>
     <t>아이시스(평화)</t>
   </si>
   <si>
-    <t>d-DJ</t>
-  </si>
-  <si>
-    <t>d-11</t>
-  </si>
-  <si>
     <t>백산수</t>
   </si>
   <si>
-    <t>d-DK</t>
-  </si>
-  <si>
-    <t>d-12</t>
-  </si>
-  <si>
-    <t>d-13</t>
-  </si>
-  <si>
-    <t>d-14</t>
-  </si>
-  <si>
-    <t>d-15</t>
-  </si>
-  <si>
     <t>동원샘물(연천)</t>
   </si>
   <si>
-    <t>d-DO</t>
-  </si>
-  <si>
-    <t>d-16</t>
-  </si>
-  <si>
-    <t>d-17</t>
-  </si>
-  <si>
     <t>동원샘물(포천)</t>
   </si>
   <si>
-    <t>d-DQ</t>
-  </si>
-  <si>
-    <t>d-18</t>
-  </si>
-  <si>
-    <t>d-19</t>
-  </si>
-  <si>
     <t>이동크리스탈</t>
   </si>
   <si>
-    <t>d-DS</t>
-  </si>
-  <si>
-    <t>d-20</t>
-  </si>
-  <si>
-    <t>d-21</t>
-  </si>
-  <si>
     <t>우리샘물</t>
   </si>
   <si>
-    <t>d-DU</t>
-  </si>
-  <si>
-    <t>d-22</t>
-  </si>
-  <si>
     <t>지리산청정수</t>
   </si>
   <si>
-    <t>d-DV</t>
-  </si>
-  <si>
-    <t>d-23</t>
-  </si>
-  <si>
     <t>에브리데이산수</t>
   </si>
   <si>
-    <t>d-DW</t>
-  </si>
-  <si>
-    <t>d-24</t>
-  </si>
-  <si>
     <t>미네랄워터</t>
   </si>
   <si>
-    <t>d-DX</t>
-  </si>
-  <si>
-    <t>d-25</t>
-  </si>
-  <si>
     <t>하루이리터</t>
   </si>
   <si>
-    <t>d-DY</t>
-  </si>
-  <si>
-    <t>d-26</t>
-  </si>
-  <si>
     <t>얼쑤얼수</t>
   </si>
   <si>
-    <t>d-DZ</t>
-  </si>
-  <si>
-    <t>d-27</t>
-  </si>
-  <si>
     <t>몽베스트</t>
   </si>
   <si>
-    <t>d-EF</t>
-  </si>
-  <si>
-    <t>d-28</t>
-  </si>
-  <si>
     <t>마이워터</t>
   </si>
   <si>
-    <t>d-EG</t>
-  </si>
-  <si>
-    <t>d-29</t>
-  </si>
-  <si>
     <t>지리산맑은샘물</t>
   </si>
   <si>
-    <t>d-EH</t>
-  </si>
-  <si>
-    <t>d-30</t>
-  </si>
-  <si>
-    <t>d-31</t>
-  </si>
-  <si>
-    <t>d-32</t>
-  </si>
-  <si>
     <t>가야G워터</t>
   </si>
   <si>
-    <t>d-EK</t>
-  </si>
-  <si>
-    <t>d-33</t>
-  </si>
-  <si>
-    <t>d-34</t>
-  </si>
-  <si>
-    <t>d-35</t>
-  </si>
-  <si>
     <t>풀무원 샘물</t>
   </si>
   <si>
-    <t>d-EN</t>
-  </si>
-  <si>
-    <t>d-36</t>
-  </si>
-  <si>
     <t>순수</t>
   </si>
   <si>
-    <t>d-EO</t>
-  </si>
-  <si>
-    <t>d-37</t>
-  </si>
-  <si>
     <t>석수</t>
   </si>
   <si>
-    <t>d-EP</t>
-  </si>
-  <si>
-    <t>d-38</t>
-  </si>
-  <si>
-    <t>d-39</t>
-  </si>
-  <si>
-    <t>d-40</t>
-  </si>
-  <si>
-    <t>d-41</t>
-  </si>
-  <si>
-    <t>d-42</t>
-  </si>
-  <si>
-    <t>d-43</t>
-  </si>
-  <si>
     <t>탐사수</t>
   </si>
   <si>
-    <t>d-EV</t>
-  </si>
-  <si>
-    <t>d-44</t>
-  </si>
-  <si>
-    <t>d-45</t>
-  </si>
-  <si>
-    <t>d-46</t>
-  </si>
-  <si>
     <t>스파클</t>
   </si>
   <si>
-    <t>d-EY</t>
-  </si>
-  <si>
-    <t>d-47</t>
-  </si>
-  <si>
-    <t>d-48</t>
-  </si>
-  <si>
     <t>지리산수</t>
   </si>
   <si>
-    <t>d-FG</t>
-  </si>
-  <si>
-    <t>d-49</t>
-  </si>
-  <si>
-    <t>d-50</t>
-  </si>
-  <si>
-    <t>d-51</t>
-  </si>
-  <si>
     <t>삼다수</t>
   </si>
   <si>
-    <t>d-FJ</t>
-  </si>
-  <si>
-    <t>d-52</t>
-  </si>
-  <si>
-    <t>d-53</t>
-  </si>
-  <si>
-    <t>d-54</t>
-  </si>
-  <si>
-    <t>d-55</t>
-  </si>
-  <si>
-    <t>d-56</t>
-  </si>
-  <si>
-    <t>d-57</t>
-  </si>
-  <si>
-    <t>d-58</t>
-  </si>
-  <si>
-    <t>d-59</t>
-  </si>
-  <si>
-    <t>d-60</t>
-  </si>
-  <si>
-    <t>d-61</t>
-  </si>
-  <si>
-    <t>d-62</t>
-  </si>
-  <si>
-    <t>d-63</t>
-  </si>
-  <si>
-    <t>d-64</t>
-  </si>
-  <si>
-    <t>d-65</t>
-  </si>
-  <si>
-    <t>d-66</t>
-  </si>
-  <si>
-    <t>d-FY</t>
-  </si>
-  <si>
-    <t>d-67</t>
-  </si>
-  <si>
-    <t>d-68</t>
-  </si>
-  <si>
     <t>wakeupbeauty</t>
   </si>
   <si>
-    <t>d-GH</t>
-  </si>
-  <si>
-    <t>d-69</t>
-  </si>
-  <si>
-    <t>d-GI</t>
-  </si>
-  <si>
-    <t>d-70</t>
-  </si>
-  <si>
-    <t>d-71</t>
-  </si>
-  <si>
     <t>퓨어라이프</t>
   </si>
   <si>
-    <t>d-GK</t>
-  </si>
-  <si>
-    <t>d-72</t>
-  </si>
-  <si>
-    <t>d-73</t>
-  </si>
-  <si>
-    <t>d-74</t>
-  </si>
-  <si>
-    <t>d-75</t>
-  </si>
-  <si>
     <t>어스워터</t>
   </si>
   <si>
-    <t>d-GO</t>
-  </si>
-  <si>
-    <t>d-76</t>
-  </si>
-  <si>
     <t>보다보다</t>
   </si>
   <si>
-    <t>d-GP</t>
-  </si>
-  <si>
-    <t>d-77</t>
-  </si>
-  <si>
-    <t>d-78</t>
-  </si>
-  <si>
     <t>와일드주니어</t>
   </si>
   <si>
-    <t>d-GR</t>
-  </si>
-  <si>
-    <t>d-79</t>
-  </si>
-  <si>
-    <t>d-80</t>
-  </si>
-  <si>
     <t>산베네딕토</t>
   </si>
   <si>
-    <t>d-GT</t>
-  </si>
-  <si>
-    <t>d-81</t>
-  </si>
-  <si>
     <t>아이슬란딕워터</t>
   </si>
   <si>
-    <t>d-GU</t>
-  </si>
-  <si>
-    <t>d-82</t>
-  </si>
-  <si>
-    <t>d-GV</t>
-  </si>
-  <si>
-    <t>d-83</t>
-  </si>
-  <si>
-    <t>d-84</t>
-  </si>
-  <si>
     <t>수르지바</t>
   </si>
   <si>
-    <t>d-GX</t>
-  </si>
-  <si>
-    <t>d-85</t>
-  </si>
-  <si>
-    <t>d-86</t>
-  </si>
-  <si>
     <t>안티포즈 스틸워터</t>
   </si>
   <si>
-    <t>d-GZ</t>
-  </si>
-  <si>
-    <t>d-87</t>
-  </si>
-  <si>
-    <t>d-88</t>
-  </si>
-  <si>
-    <t>d-89</t>
-  </si>
-  <si>
-    <t>d-90</t>
-  </si>
-  <si>
-    <t>d-91</t>
-  </si>
-  <si>
-    <t>d-HM</t>
-  </si>
-  <si>
-    <t>d-92</t>
-  </si>
-  <si>
-    <t>d-93</t>
-  </si>
-  <si>
     <t>평창수</t>
-  </si>
-  <si>
-    <t>d-HO</t>
-  </si>
-  <si>
-    <t>d-94</t>
-  </si>
-  <si>
-    <t>d-95</t>
-  </si>
-  <si>
-    <t>d-96</t>
-  </si>
-  <si>
-    <t>d-97</t>
-  </si>
-  <si>
-    <t>d-98</t>
-  </si>
-  <si>
-    <t>d-99</t>
-  </si>
-  <si>
-    <t>d-100</t>
-  </si>
-  <si>
-    <t>d-101</t>
   </si>
   <si>
     <t>Ca</t>
@@ -927,6 +294,641 @@
   <si>
     <t>SiO2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-1</t>
+  </si>
+  <si>
+    <t>M-AB</t>
+  </si>
+  <si>
+    <t>M-2</t>
+  </si>
+  <si>
+    <t>M-AC</t>
+  </si>
+  <si>
+    <t>M-3</t>
+  </si>
+  <si>
+    <t>M-AD</t>
+  </si>
+  <si>
+    <t>M-4</t>
+  </si>
+  <si>
+    <t>M-AE</t>
+  </si>
+  <si>
+    <t>M-5</t>
+  </si>
+  <si>
+    <t>M-AF</t>
+  </si>
+  <si>
+    <t>M-6</t>
+  </si>
+  <si>
+    <t>M-AG</t>
+  </si>
+  <si>
+    <t>M-7</t>
+  </si>
+  <si>
+    <t>M-AH</t>
+  </si>
+  <si>
+    <t>M-8</t>
+  </si>
+  <si>
+    <t>M-AI</t>
+  </si>
+  <si>
+    <t>M-9</t>
+  </si>
+  <si>
+    <t>M-AJ</t>
+  </si>
+  <si>
+    <t>M-10</t>
+  </si>
+  <si>
+    <t>M-AK</t>
+  </si>
+  <si>
+    <t>M-11</t>
+  </si>
+  <si>
+    <t>M-AL</t>
+  </si>
+  <si>
+    <t>M-12</t>
+  </si>
+  <si>
+    <t>M-AM</t>
+  </si>
+  <si>
+    <t>M-13</t>
+  </si>
+  <si>
+    <t>M-AN</t>
+  </si>
+  <si>
+    <t>M-14</t>
+  </si>
+  <si>
+    <t>M-AO</t>
+  </si>
+  <si>
+    <t>M-15</t>
+  </si>
+  <si>
+    <t>M-AP</t>
+  </si>
+  <si>
+    <t>M-16</t>
+  </si>
+  <si>
+    <t>M-AQ</t>
+  </si>
+  <si>
+    <t>M-17</t>
+  </si>
+  <si>
+    <t>M-AR</t>
+  </si>
+  <si>
+    <t>M-18</t>
+  </si>
+  <si>
+    <t>M-AS</t>
+  </si>
+  <si>
+    <t>M-19</t>
+  </si>
+  <si>
+    <t>M-AT</t>
+  </si>
+  <si>
+    <t>M-20</t>
+  </si>
+  <si>
+    <t>M-AU</t>
+  </si>
+  <si>
+    <t>M-21</t>
+  </si>
+  <si>
+    <t>M-AV</t>
+  </si>
+  <si>
+    <t>M-22</t>
+  </si>
+  <si>
+    <t>M-AW</t>
+  </si>
+  <si>
+    <t>M-23</t>
+  </si>
+  <si>
+    <t>M-AX</t>
+  </si>
+  <si>
+    <t>M-24</t>
+  </si>
+  <si>
+    <t>M-AY</t>
+  </si>
+  <si>
+    <t>M-25</t>
+  </si>
+  <si>
+    <t>M-AZ</t>
+  </si>
+  <si>
+    <t>M-26</t>
+  </si>
+  <si>
+    <t>M-BC</t>
+  </si>
+  <si>
+    <t>M-27</t>
+  </si>
+  <si>
+    <t>M-BD</t>
+  </si>
+  <si>
+    <t>M-28</t>
+  </si>
+  <si>
+    <t>M-BE</t>
+  </si>
+  <si>
+    <t>M-29</t>
+  </si>
+  <si>
+    <t>M-CQ</t>
+  </si>
+  <si>
+    <t>M-30</t>
+  </si>
+  <si>
+    <t>M-BG</t>
+  </si>
+  <si>
+    <t>M-31</t>
+  </si>
+  <si>
+    <t>M-BH</t>
+  </si>
+  <si>
+    <t>M-32</t>
+  </si>
+  <si>
+    <t>M-BI</t>
+  </si>
+  <si>
+    <t>M-33</t>
+  </si>
+  <si>
+    <t>M-BJ</t>
+  </si>
+  <si>
+    <t>M-34</t>
+  </si>
+  <si>
+    <t>M-BK</t>
+  </si>
+  <si>
+    <t>B-1</t>
+  </si>
+  <si>
+    <t>B-CW</t>
+  </si>
+  <si>
+    <t>B-2</t>
+  </si>
+  <si>
+    <t>B-3</t>
+  </si>
+  <si>
+    <t>B-CY</t>
+  </si>
+  <si>
+    <t>B-4</t>
+  </si>
+  <si>
+    <t>B-5</t>
+  </si>
+  <si>
+    <t>B-6</t>
+  </si>
+  <si>
+    <t>B-DF</t>
+  </si>
+  <si>
+    <t>B-7</t>
+  </si>
+  <si>
+    <t>B-8</t>
+  </si>
+  <si>
+    <t>B-9</t>
+  </si>
+  <si>
+    <t>B-DI</t>
+  </si>
+  <si>
+    <t>B-10</t>
+  </si>
+  <si>
+    <t>B-DJ</t>
+  </si>
+  <si>
+    <t>B-11</t>
+  </si>
+  <si>
+    <t>B-DK</t>
+  </si>
+  <si>
+    <t>B-12</t>
+  </si>
+  <si>
+    <t>B-13</t>
+  </si>
+  <si>
+    <t>B-14</t>
+  </si>
+  <si>
+    <t>B-15</t>
+  </si>
+  <si>
+    <t>B-DO</t>
+  </si>
+  <si>
+    <t>B-16</t>
+  </si>
+  <si>
+    <t>B-17</t>
+  </si>
+  <si>
+    <t>B-DQ</t>
+  </si>
+  <si>
+    <t>B-18</t>
+  </si>
+  <si>
+    <t>B-19</t>
+  </si>
+  <si>
+    <t>B-DS</t>
+  </si>
+  <si>
+    <t>B-20</t>
+  </si>
+  <si>
+    <t>B-21</t>
+  </si>
+  <si>
+    <t>B-DU</t>
+  </si>
+  <si>
+    <t>B-22</t>
+  </si>
+  <si>
+    <t>B-DV</t>
+  </si>
+  <si>
+    <t>B-23</t>
+  </si>
+  <si>
+    <t>B-DW</t>
+  </si>
+  <si>
+    <t>B-24</t>
+  </si>
+  <si>
+    <t>B-DX</t>
+  </si>
+  <si>
+    <t>B-25</t>
+  </si>
+  <si>
+    <t>B-DY</t>
+  </si>
+  <si>
+    <t>B-26</t>
+  </si>
+  <si>
+    <t>B-DZ</t>
+  </si>
+  <si>
+    <t>B-27</t>
+  </si>
+  <si>
+    <t>B-EF</t>
+  </si>
+  <si>
+    <t>B-28</t>
+  </si>
+  <si>
+    <t>B-EG</t>
+  </si>
+  <si>
+    <t>B-29</t>
+  </si>
+  <si>
+    <t>B-EH</t>
+  </si>
+  <si>
+    <t>B-30</t>
+  </si>
+  <si>
+    <t>B-31</t>
+  </si>
+  <si>
+    <t>B-32</t>
+  </si>
+  <si>
+    <t>B-EK</t>
+  </si>
+  <si>
+    <t>B-33</t>
+  </si>
+  <si>
+    <t>B-34</t>
+  </si>
+  <si>
+    <t>B-35</t>
+  </si>
+  <si>
+    <t>B-EN</t>
+  </si>
+  <si>
+    <t>B-36</t>
+  </si>
+  <si>
+    <t>B-EO</t>
+  </si>
+  <si>
+    <t>B-37</t>
+  </si>
+  <si>
+    <t>B-EP</t>
+  </si>
+  <si>
+    <t>B-38</t>
+  </si>
+  <si>
+    <t>B-39</t>
+  </si>
+  <si>
+    <t>B-40</t>
+  </si>
+  <si>
+    <t>B-41</t>
+  </si>
+  <si>
+    <t>B-42</t>
+  </si>
+  <si>
+    <t>B-43</t>
+  </si>
+  <si>
+    <t>B-EV</t>
+  </si>
+  <si>
+    <t>B-44</t>
+  </si>
+  <si>
+    <t>B-45</t>
+  </si>
+  <si>
+    <t>B-46</t>
+  </si>
+  <si>
+    <t>B-EY</t>
+  </si>
+  <si>
+    <t>B-47</t>
+  </si>
+  <si>
+    <t>B-48</t>
+  </si>
+  <si>
+    <t>B-FG</t>
+  </si>
+  <si>
+    <t>B-49</t>
+  </si>
+  <si>
+    <t>B-50</t>
+  </si>
+  <si>
+    <t>B-51</t>
+  </si>
+  <si>
+    <t>B-FJ</t>
+  </si>
+  <si>
+    <t>B-52</t>
+  </si>
+  <si>
+    <t>B-53</t>
+  </si>
+  <si>
+    <t>B-54</t>
+  </si>
+  <si>
+    <t>B-55</t>
+  </si>
+  <si>
+    <t>B-56</t>
+  </si>
+  <si>
+    <t>B-57</t>
+  </si>
+  <si>
+    <t>B-58</t>
+  </si>
+  <si>
+    <t>B-59</t>
+  </si>
+  <si>
+    <t>B-60</t>
+  </si>
+  <si>
+    <t>B-61</t>
+  </si>
+  <si>
+    <t>B-62</t>
+  </si>
+  <si>
+    <t>B-63</t>
+  </si>
+  <si>
+    <t>B-64</t>
+  </si>
+  <si>
+    <t>B-65</t>
+  </si>
+  <si>
+    <t>B-66</t>
+  </si>
+  <si>
+    <t>B-FY</t>
+  </si>
+  <si>
+    <t>B-67</t>
+  </si>
+  <si>
+    <t>B-68</t>
+  </si>
+  <si>
+    <t>B-GH</t>
+  </si>
+  <si>
+    <t>B-69</t>
+  </si>
+  <si>
+    <t>B-GI</t>
+  </si>
+  <si>
+    <t>B-70</t>
+  </si>
+  <si>
+    <t>B-71</t>
+  </si>
+  <si>
+    <t>B-GK</t>
+  </si>
+  <si>
+    <t>B-72</t>
+  </si>
+  <si>
+    <t>B-73</t>
+  </si>
+  <si>
+    <t>B-74</t>
+  </si>
+  <si>
+    <t>B-75</t>
+  </si>
+  <si>
+    <t>B-GO</t>
+  </si>
+  <si>
+    <t>B-76</t>
+  </si>
+  <si>
+    <t>B-GP</t>
+  </si>
+  <si>
+    <t>B-77</t>
+  </si>
+  <si>
+    <t>B-78</t>
+  </si>
+  <si>
+    <t>B-GR</t>
+  </si>
+  <si>
+    <t>B-79</t>
+  </si>
+  <si>
+    <t>B-80</t>
+  </si>
+  <si>
+    <t>B-GT</t>
+  </si>
+  <si>
+    <t>B-81</t>
+  </si>
+  <si>
+    <t>B-GU</t>
+  </si>
+  <si>
+    <t>B-82</t>
+  </si>
+  <si>
+    <t>B-GV</t>
+  </si>
+  <si>
+    <t>B-83</t>
+  </si>
+  <si>
+    <t>B-84</t>
+  </si>
+  <si>
+    <t>B-GX</t>
+  </si>
+  <si>
+    <t>B-85</t>
+  </si>
+  <si>
+    <t>B-86</t>
+  </si>
+  <si>
+    <t>B-GZ</t>
+  </si>
+  <si>
+    <t>B-87</t>
+  </si>
+  <si>
+    <t>B-88</t>
+  </si>
+  <si>
+    <t>B-89</t>
+  </si>
+  <si>
+    <t>B-90</t>
+  </si>
+  <si>
+    <t>B-91</t>
+  </si>
+  <si>
+    <t>B-HM</t>
+  </si>
+  <si>
+    <t>B-92</t>
+  </si>
+  <si>
+    <t>B-93</t>
+  </si>
+  <si>
+    <t>B-HO</t>
+  </si>
+  <si>
+    <t>B-94</t>
+  </si>
+  <si>
+    <t>B-95</t>
+  </si>
+  <si>
+    <t>B-96</t>
+  </si>
+  <si>
+    <t>B-97</t>
+  </si>
+  <si>
+    <t>B-98</t>
+  </si>
+  <si>
+    <t>B-99</t>
+  </si>
+  <si>
+    <t>B-100</t>
+  </si>
+  <si>
+    <t>B-101</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1313,10 @@
   <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="O124" sqref="O124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1346,19 +1348,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>295</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -1384,16 +1386,16 @@
     </row>
     <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E2" s="9">
         <v>39.603544720910108</v>
@@ -1434,16 +1436,16 @@
     </row>
     <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9">
         <v>8.7025170116942707</v>
@@ -1482,16 +1484,16 @@
     </row>
     <row r="4" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E4" s="9">
         <v>85.184411797398468</v>
@@ -1532,16 +1534,16 @@
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E5" s="9">
         <v>32.618927441914792</v>
@@ -1582,16 +1584,16 @@
     </row>
     <row r="6" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E6" s="9">
         <v>3.175396081532273</v>
@@ -1626,16 +1628,16 @@
     </row>
     <row r="7" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9">
         <v>0.93037290975103248</v>
@@ -1668,16 +1670,16 @@
     </row>
     <row r="8" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E8" s="9">
         <v>44.53628333660275</v>
@@ -1714,16 +1716,16 @@
     </row>
     <row r="9" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="E9" s="9">
         <v>3.0946320354901857</v>
@@ -1758,16 +1760,16 @@
     </row>
     <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E10" s="9">
         <v>2.6851665142309455</v>
@@ -1802,16 +1804,16 @@
     </row>
     <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="E11" s="9">
         <v>12.956787301285205</v>
@@ -1850,16 +1852,16 @@
     </row>
     <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E12" s="9">
         <v>12.871581756244076</v>
@@ -1898,16 +1900,16 @@
     </row>
     <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E13" s="9">
         <v>67.124495783588827</v>
@@ -1944,16 +1946,16 @@
     </row>
     <row r="14" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E14" s="9">
         <v>10.854114556331425</v>
@@ -1994,16 +1996,16 @@
     </row>
     <row r="15" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E15" s="9">
         <v>36.570796834687087</v>
@@ -2044,16 +2046,16 @@
     </row>
     <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="E16" s="9">
         <v>16.56633026357671</v>
@@ -2092,16 +2094,16 @@
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="E17" s="9">
         <v>25.590967872537163</v>
@@ -2142,16 +2144,16 @@
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="E18" s="9">
         <v>84.119787242934223</v>
@@ -2192,16 +2194,16 @@
     </row>
     <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="E19" s="9">
         <v>29.3728265277079</v>
@@ -2242,16 +2244,16 @@
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E20" s="9">
         <v>23.198336950295289</v>
@@ -2292,16 +2294,16 @@
     </row>
     <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="E21" s="9">
         <v>57.064439953581733</v>
@@ -2340,16 +2342,16 @@
     </row>
     <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E22" s="9">
         <v>10.142248326359997</v>
@@ -2388,16 +2390,16 @@
     </row>
     <row r="23" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E23" s="9">
         <v>30.814647376433875</v>
@@ -2438,16 +2440,16 @@
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E24" s="9">
         <v>14.596560879431459</v>
@@ -2488,16 +2490,16 @@
     </row>
     <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E25" s="9">
         <v>54.032610689416728</v>
@@ -2534,16 +2536,16 @@
     </row>
     <row r="26" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="E26" s="9">
         <v>84.638485956063747</v>
@@ -2584,16 +2586,16 @@
     </row>
     <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="E27" s="9">
         <v>36.391507073852054</v>
@@ -2634,16 +2636,16 @@
     </row>
     <row r="28" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="E28" s="9">
         <v>13.723071784809456</v>
@@ -2684,16 +2686,16 @@
     </row>
     <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E29" s="9">
         <v>73.542411949882791</v>
@@ -2734,16 +2736,16 @@
     </row>
     <row r="30" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="E30" s="9">
         <v>109.39412280874174</v>
@@ -2780,16 +2782,16 @@
     </row>
     <row r="31" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="E31" s="9">
         <v>56.788367438408585</v>
@@ -2826,16 +2828,16 @@
     </row>
     <row r="32" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="E32" s="9">
         <v>10.904976959683404</v>
@@ -2876,16 +2878,16 @@
     </row>
     <row r="33" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E33" s="9">
         <v>0.29943771560517651</v>
@@ -2922,16 +2924,16 @@
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E34" s="9">
         <v>34.450733566790362</v>
@@ -2972,16 +2974,16 @@
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="E35" s="9">
         <v>17.121961469686767</v>
@@ -3022,16 +3024,16 @@
     </row>
     <row r="36" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E36" s="9">
         <v>18.456229850364625</v>
@@ -3072,16 +3074,16 @@
     </row>
     <row r="37" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E37" s="9">
         <v>16.833208611942261</v>
@@ -3122,16 +3124,16 @@
     </row>
     <row r="38" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E38" s="9">
         <v>21.881391672275903</v>
@@ -3172,16 +3174,16 @@
     </row>
     <row r="39" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E39" s="9">
         <v>22.210583513678614</v>
@@ -3222,16 +3224,16 @@
     </row>
     <row r="40" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E40" s="9">
         <v>16.732733200819901</v>
@@ -3272,16 +3274,16 @@
     </row>
     <row r="41" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E41" s="9">
         <v>28.246586717975021</v>
@@ -3322,16 +3324,16 @@
     </row>
     <row r="42" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E42" s="9">
         <v>20.49084078677922</v>
@@ -3372,16 +3374,16 @@
     </row>
     <row r="43" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E43" s="9">
         <v>23.305659832916099</v>
@@ -3422,16 +3424,16 @@
     </row>
     <row r="44" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="E44" s="9">
         <v>26.797733511529536</v>
@@ -3472,16 +3474,16 @@
     </row>
     <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E45" s="9">
         <v>26.905332500817366</v>
@@ -3522,16 +3524,16 @@
     </row>
     <row r="46" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E46" s="9">
         <v>5.0243794580498307</v>
@@ -3572,16 +3574,16 @@
     </row>
     <row r="47" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E47" s="9">
         <v>5.0417510979649105</v>
@@ -3622,16 +3624,16 @@
     </row>
     <row r="48" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E48" s="9">
         <v>5.0959031342300776</v>
@@ -3672,16 +3674,16 @@
     </row>
     <row r="49" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E49" s="9">
         <v>5.0683637838044096</v>
@@ -3722,16 +3724,16 @@
     </row>
     <row r="50" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E50" s="9">
         <v>24.443521037428351</v>
@@ -3772,16 +3774,16 @@
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E51" s="9">
         <v>23.467614250241823</v>
@@ -3822,16 +3824,16 @@
     </row>
     <row r="52" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="E52" s="9">
         <v>33.768753028881662</v>
@@ -3872,16 +3874,16 @@
     </row>
     <row r="53" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="E53" s="9">
         <v>33.471898631638695</v>
@@ -3922,16 +3924,16 @@
     </row>
     <row r="54" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E54" s="9">
         <v>15.722793965022429</v>
@@ -3972,16 +3974,16 @@
     </row>
     <row r="55" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E55" s="9">
         <v>21.647920436831836</v>
@@ -4022,16 +4024,16 @@
     </row>
     <row r="56" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E56" s="9">
         <v>23.301398208537748</v>
@@ -4072,16 +4074,16 @@
     </row>
     <row r="57" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E57" s="9">
         <v>11.688295955201415</v>
@@ -4122,16 +4124,16 @@
     </row>
     <row r="58" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E58" s="9">
         <v>12.57581881423893</v>
@@ -4172,16 +4174,16 @@
     </row>
     <row r="59" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="E59" s="9">
         <v>23.180389593830384</v>
@@ -4222,16 +4224,16 @@
     </row>
     <row r="60" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="E60" s="9">
         <v>15.61653736565582</v>
@@ -4272,16 +4274,16 @@
     </row>
     <row r="61" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="E61" s="9">
         <v>13.429465099180405</v>
@@ -4322,16 +4324,16 @@
     </row>
     <row r="62" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="E62" s="9">
         <v>14.523325982085264</v>
@@ -4372,16 +4374,16 @@
     </row>
     <row r="63" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E63" s="9">
         <v>23.088627951049396</v>
@@ -4422,16 +4424,16 @@
     </row>
     <row r="64" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="E64" s="9">
         <v>22.448230981573985</v>
@@ -4472,16 +4474,16 @@
     </row>
     <row r="65" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="E65" s="9">
         <v>22.004890850017958</v>
@@ -4522,16 +4524,16 @@
     </row>
     <row r="66" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="E66" s="9">
         <v>22.26730195889127</v>
@@ -4572,16 +4574,16 @@
     </row>
     <row r="67" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E67" s="9">
         <v>14.347146557169186</v>
@@ -4622,16 +4624,16 @@
     </row>
     <row r="68" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E68" s="9">
         <v>13.572939879059074</v>
@@ -4672,16 +4674,16 @@
     </row>
     <row r="69" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E69" s="9">
         <v>14.282078097709434</v>
@@ -4722,16 +4724,16 @@
     </row>
     <row r="70" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E70" s="9">
         <v>13.98344367953413</v>
@@ -4772,16 +4774,16 @@
     </row>
     <row r="71" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E71" s="9">
         <v>18.879893656028173</v>
@@ -4822,16 +4824,16 @@
     </row>
     <row r="72" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E72" s="9">
         <v>75.011978295763413</v>
@@ -4872,16 +4874,16 @@
     </row>
     <row r="73" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E73" s="9">
         <v>77.874434616533421</v>
@@ -4922,16 +4924,16 @@
     </row>
     <row r="74" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E74" s="9">
         <v>84.024635034898097</v>
@@ -4972,16 +4974,16 @@
     </row>
     <row r="75" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E75" s="9">
         <v>79.526454297533505</v>
@@ -5022,16 +5024,16 @@
     </row>
     <row r="76" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E76" s="9">
         <v>80.096818927021388</v>
@@ -5072,16 +5074,16 @@
     </row>
     <row r="77" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E77" s="9">
         <v>83.203441781640379</v>
@@ -5122,16 +5124,16 @@
     </row>
     <row r="78" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E78" s="9">
         <v>29.689467692175846</v>
@@ -5172,16 +5174,16 @@
     </row>
     <row r="79" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E79" s="9">
         <v>14.836738031805524</v>
@@ -5222,16 +5224,16 @@
     </row>
     <row r="80" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E80" s="9">
         <v>17.334871947152728</v>
@@ -5272,16 +5274,16 @@
     </row>
     <row r="81" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E81" s="9">
         <v>28.103555427417625</v>
@@ -5322,16 +5324,16 @@
     </row>
     <row r="82" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E82" s="9">
         <v>20.087653477727301</v>
@@ -5372,16 +5374,16 @@
     </row>
     <row r="83" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E83" s="9">
         <v>21.788483850726031</v>
@@ -5422,16 +5424,16 @@
     </row>
     <row r="84" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E84" s="9">
         <v>27.958073578284903</v>
@@ -5472,16 +5474,16 @@
     </row>
     <row r="85" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E85" s="9">
         <v>37.885750381691992</v>
@@ -5522,16 +5524,16 @@
     </row>
     <row r="86" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E86" s="9">
         <v>3.7601008332122703</v>
@@ -5572,16 +5574,16 @@
     </row>
     <row r="87" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E87" s="9">
         <v>3.4749620553085618</v>
@@ -5622,16 +5624,16 @@
     </row>
     <row r="88" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E88" s="9">
         <v>3.4287300201655735</v>
@@ -5672,16 +5674,16 @@
     </row>
     <row r="89" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E89" s="9">
         <v>3.4324777670053099</v>
@@ -5722,16 +5724,16 @@
     </row>
     <row r="90" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E90" s="9">
         <v>3.4286876887862818</v>
@@ -5772,16 +5774,16 @@
     </row>
     <row r="91" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E91" s="9">
         <v>3.4108055153000638</v>
@@ -5822,16 +5824,16 @@
     </row>
     <row r="92" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E92" s="9">
         <v>22.616564460505099</v>
@@ -5872,16 +5874,16 @@
     </row>
     <row r="93" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E93" s="9">
         <v>22.506582124794861</v>
@@ -5922,16 +5924,16 @@
     </row>
     <row r="94" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E94" s="9">
         <v>24.289464162734614</v>
@@ -5972,16 +5974,16 @@
     </row>
     <row r="95" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E95" s="9">
         <v>26.551632964077932</v>
@@ -6022,16 +6024,16 @@
     </row>
     <row r="96" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E96" s="9">
         <v>22.368517034686736</v>
@@ -6072,16 +6074,16 @@
     </row>
     <row r="97" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E97" s="9">
         <v>33.343575812000751</v>
@@ -6122,16 +6124,16 @@
     </row>
     <row r="98" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E98" s="9">
         <v>30.600585073357273</v>
@@ -6172,16 +6174,16 @@
     </row>
     <row r="99" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E99" s="9">
         <v>29.999457202715096</v>
@@ -6222,16 +6224,16 @@
     </row>
     <row r="100" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E100" s="9">
         <v>29.905254573877695</v>
@@ -6272,16 +6274,16 @@
     </row>
     <row r="101" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E101" s="9">
         <v>25.389757622973729</v>
@@ -6322,16 +6324,16 @@
     </row>
     <row r="102" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E102" s="9">
         <v>28.4860378542283</v>
@@ -6372,16 +6374,16 @@
     </row>
     <row r="103" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E103" s="9">
         <v>22.957894863310166</v>
@@ -6422,16 +6424,16 @@
     </row>
     <row r="104" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E104" s="9">
         <v>12.673158509287095</v>
@@ -6472,16 +6474,16 @@
     </row>
     <row r="105" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E105" s="9">
         <v>17.695677917456258</v>
@@ -6522,16 +6524,16 @@
     </row>
     <row r="106" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E106" s="9">
         <v>14.682472176249231</v>
@@ -6572,16 +6574,16 @@
     </row>
     <row r="107" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E107" s="9">
         <v>19.766280723953965</v>
@@ -6622,16 +6624,16 @@
     </row>
     <row r="108" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="E108" s="9">
         <v>13.172326853661104</v>
@@ -6672,16 +6674,16 @@
     </row>
     <row r="109" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E109" s="9">
         <v>18.883694583211721</v>
@@ -6722,16 +6724,16 @@
     </row>
     <row r="110" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E110" s="9">
         <v>17.81994200469099</v>
@@ -6772,16 +6774,16 @@
     </row>
     <row r="111" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E111" s="9">
         <v>74.483632571498148</v>
@@ -6822,16 +6824,16 @@
     </row>
     <row r="112" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E112" s="9">
         <v>73.426960457748123</v>
@@ -6872,16 +6874,16 @@
     </row>
     <row r="113" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E113" s="9">
         <v>44.728312532605187</v>
@@ -6922,16 +6924,16 @@
     </row>
     <row r="114" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E114" s="9">
         <v>13.60715470338433</v>
@@ -6972,16 +6974,16 @@
     </row>
     <row r="115" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E115" s="9">
         <v>49.926122669477643</v>
@@ -7022,16 +7024,16 @@
     </row>
     <row r="116" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E116" s="9">
         <v>5.9796482974172678</v>
@@ -7072,16 +7074,16 @@
     </row>
     <row r="117" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E117" s="9">
         <v>5.9244635060084629</v>
@@ -7120,16 +7122,16 @@
     </row>
     <row r="118" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E118" s="9">
         <v>5.7596811984278915</v>
@@ -7168,16 +7170,16 @@
     </row>
     <row r="119" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E119" s="9">
         <v>7.8086446763485204</v>
@@ -7218,16 +7220,16 @@
     </row>
     <row r="120" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E120" s="9">
         <v>8.1147731374968668</v>
@@ -7268,16 +7270,16 @@
     </row>
     <row r="121" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E121" s="9">
         <v>3.7310665562197576</v>
@@ -7318,16 +7320,16 @@
     </row>
     <row r="122" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E122" s="9">
         <v>3.7424485955157514</v>
@@ -7366,16 +7368,16 @@
     </row>
     <row r="123" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E123" s="9">
         <v>8.1762441124706609</v>
@@ -7416,16 +7418,16 @@
     </row>
     <row r="124" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E124" s="9">
         <v>11.168989827978944</v>
@@ -7466,16 +7468,16 @@
     </row>
     <row r="125" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E125" s="9">
         <v>10.572253505463696</v>
@@ -7516,16 +7518,16 @@
     </row>
     <row r="126" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E126" s="9">
         <v>7.8532647185529711</v>
@@ -7566,16 +7568,16 @@
     </row>
     <row r="127" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E127" s="9">
         <v>32.313573289274927</v>
@@ -7616,16 +7618,16 @@
     </row>
     <row r="128" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E128" s="9">
         <v>16.600520422989092</v>
@@ -7666,16 +7668,16 @@
     </row>
     <row r="129" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E129" s="9">
         <v>15.272031664038799</v>
@@ -7714,16 +7716,16 @@
     </row>
     <row r="130" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E130" s="9">
         <v>17.569921912711081</v>
@@ -7764,16 +7766,16 @@
     </row>
     <row r="131" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E131" s="9">
         <v>16.512620742017532</v>
@@ -7814,16 +7816,16 @@
     </row>
     <row r="132" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E132" s="9">
         <v>16.240236406372077</v>
@@ -7864,16 +7866,16 @@
     </row>
     <row r="133" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="E133" s="9">
         <v>16.477282259746197</v>
@@ -7914,16 +7916,16 @@
     </row>
     <row r="134" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E134" s="9">
         <v>16.82353021310082</v>
@@ -7964,16 +7966,16 @@
     </row>
     <row r="135" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E135" s="9">
         <v>16.715501473161467</v>
@@ -8014,16 +8016,16 @@
     </row>
     <row r="136" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E136" s="9">
         <v>14.59185863843787</v>
